--- a/database.xlsx
+++ b/database.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="users" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:A2"/>
+  <dimension ref="A2:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -401,7 +401,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>/addven asdas</t>
+          <t>gsdfsdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Артем None</t>
         </is>
       </c>
     </row>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,33 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\PycharmProjects\Project_mathBOT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000DE3F1-AE4B-4ABE-83ED-46FEB8D2C486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="users" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="users" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+  <si>
+    <t>gsdfsdf</t>
+  </si>
+  <si>
+    <t>Артем None</t>
+  </si>
+  <si>
+    <t>куку</t>
+  </si>
+  <si>
+    <t>Правильно</t>
+  </si>
+  <si>
+    <t>Неправильно</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +71,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,29 +351,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>gsdfsdf</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Артем None</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,58 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\PycharmProjects\Project_mathBOT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000DE3F1-AE4B-4ABE-83ED-46FEB8D2C486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="users" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="users" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
-  <si>
-    <t>gsdfsdf</t>
-  </si>
-  <si>
-    <t>Артем None</t>
-  </si>
-  <si>
-    <t>куку</t>
-  </si>
-  <si>
-    <t>Правильно</t>
-  </si>
-  <si>
-    <t>Неправильно</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -71,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -351,46 +385,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1" t="s">
+    <row r="1">
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Правильно</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Неправильно</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>gsdfsdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Артем None</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Артем None</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
+      <c r="G2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>куку</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Артем None</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Абоба</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Артем None</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ылрыдовзгузгажтстжч</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Виля None</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>У6щнщвдоачщв</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Виля None</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>fdfdsf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Артем None</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -390,10 +390,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -411,88 +411,189 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>gsdfsdf</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Артем None</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Артем None</t>
+          <t>Maya MayyaE</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>куку</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Артем None</t>
-        </is>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Виля NeMeepo</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Абоба</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Артем None</t>
-        </is>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Larion</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ылрыдовзгузгажтстжч</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Виля None</t>
-        </is>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Antonina L</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>У6щнщвдоачщв</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Виля None</t>
-        </is>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Arseniy Khomchenko</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>fdfdsf</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Артем None</t>
-        </is>
-      </c>
-    </row>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sasha Verteletskiy</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Артем partivaq</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>корни двузначного числа</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Артем @partivaq</t>
+        </is>
+      </c>
+    </row>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
